--- a/data/trans_orig/P2B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>48566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37118</v>
+        <v>37883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60394</v>
+        <v>61373</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1932009378432483</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1476608319198043</v>
+        <v>0.1507039853332505</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.240253530804754</v>
+        <v>0.2441476611220318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -765,19 +765,19 @@
         <v>47142</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35925</v>
+        <v>36338</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60190</v>
+        <v>60471</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1595109587534701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1215575661529553</v>
+        <v>0.1229550923987328</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2036612156888055</v>
+        <v>0.2046114739293891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -786,19 +786,19 @@
         <v>95708</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79584</v>
+        <v>80010</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114768</v>
+        <v>114215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1749956458494098</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1455142312886903</v>
+        <v>0.1462932496751514</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2098444742410564</v>
+        <v>0.2088341361234878</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>202810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>190982</v>
+        <v>190003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>214258</v>
+        <v>213493</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8067990621567517</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.759746469195246</v>
+        <v>0.7558523388779681</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8523391680801956</v>
+        <v>0.8492960146667494</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>259</v>
@@ -836,19 +836,19 @@
         <v>248400</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>235352</v>
+        <v>235071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259617</v>
+        <v>259204</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8404890412465299</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7963387843111945</v>
+        <v>0.7953885260706109</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8784424338470447</v>
+        <v>0.8770449076012673</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>465</v>
@@ -857,19 +857,19 @@
         <v>451209</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>432149</v>
+        <v>432702</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>467333</v>
+        <v>466907</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8250043541505901</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7901555257589437</v>
+        <v>0.7911658638765122</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8544857687113098</v>
+        <v>0.8537067503248487</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>126775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109049</v>
+        <v>107517</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>148024</v>
+        <v>145665</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2952181231115361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2539418372017662</v>
+        <v>0.2503730583379067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3447004084803693</v>
+        <v>0.3392077619369513</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -982,19 +982,19 @@
         <v>169979</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>149340</v>
+        <v>149501</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192117</v>
+        <v>191459</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3449260089398223</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3030453560291502</v>
+        <v>0.3033711226914178</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3898488062614793</v>
+        <v>0.3885139787948877</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>282</v>
@@ -1003,19 +1003,19 @@
         <v>296753</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>268730</v>
+        <v>269011</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>326618</v>
+        <v>327608</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3217798984826266</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.291393401011192</v>
+        <v>0.2916975043588534</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3541632661377561</v>
+        <v>0.3552360979299898</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>302652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>281403</v>
+        <v>283762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>320378</v>
+        <v>321910</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7047818768884639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6552995915196307</v>
+        <v>0.6607922380630481</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7460581627982338</v>
+        <v>0.749626941662093</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>305</v>
@@ -1053,19 +1053,19 @@
         <v>322819</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300681</v>
+        <v>301339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>343458</v>
+        <v>343297</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6550739910601776</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6101511937385207</v>
+        <v>0.6114860212051123</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6969546439708498</v>
+        <v>0.6966288773085821</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>600</v>
@@ -1074,19 +1074,19 @@
         <v>625472</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>595607</v>
+        <v>594617</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>653495</v>
+        <v>653214</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6782201015173734</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6458367338622436</v>
+        <v>0.6447639020700101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.708606598988808</v>
+        <v>0.7083024956411464</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>149108</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>128097</v>
+        <v>128115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>170665</v>
+        <v>172270</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2696686436461846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2316688588965023</v>
+        <v>0.2317010963291044</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3086543922584677</v>
+        <v>0.311558558478295</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>185</v>
@@ -1199,19 +1199,19 @@
         <v>193580</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170418</v>
+        <v>170624</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>218126</v>
+        <v>216182</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2998969650821253</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2640138135377443</v>
+        <v>0.2643324872644148</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3379240385697742</v>
+        <v>0.3349116194702609</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>326</v>
@@ -1220,19 +1220,19 @@
         <v>342688</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>311682</v>
+        <v>310919</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>376048</v>
+        <v>377130</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2859501189087816</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2600774136953398</v>
+        <v>0.2594411468208319</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3137867586339681</v>
+        <v>0.3146892353807106</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>403823</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>382266</v>
+        <v>380661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>424834</v>
+        <v>424816</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7303313563538154</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6913456077415321</v>
+        <v>0.6884414415217049</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7683311411034977</v>
+        <v>0.7682989036708955</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>430</v>
@@ -1270,19 +1270,19 @@
         <v>451909</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>427363</v>
+        <v>429307</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>475071</v>
+        <v>474865</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7001030349178747</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6620759614302256</v>
+        <v>0.6650883805297388</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7359861864622557</v>
+        <v>0.7356675127355851</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>820</v>
@@ -1291,19 +1291,19 @@
         <v>855731</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>822371</v>
+        <v>821289</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>886737</v>
+        <v>887500</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7140498810912184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6862132413660316</v>
+        <v>0.6853107646192894</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7399225863046599</v>
+        <v>0.7405588531791681</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>66077</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52198</v>
+        <v>51497</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84538</v>
+        <v>82400</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1613673456516706</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1274717570242729</v>
+        <v>0.1257613221497019</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2064500882286163</v>
+        <v>0.2012280320754848</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -1416,19 +1416,19 @@
         <v>80844</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65343</v>
+        <v>66248</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98845</v>
+        <v>97391</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1942168766116523</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.15697882022047</v>
+        <v>0.1591519119004623</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2374629266398269</v>
+        <v>0.2339694568940911</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -1437,19 +1437,19 @@
         <v>146921</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124924</v>
+        <v>124483</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168000</v>
+        <v>171255</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1779267665273363</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1512873523879674</v>
+        <v>0.1507536754073123</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2034544671081837</v>
+        <v>0.2073956962918992</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>343407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>324946</v>
+        <v>327084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357286</v>
+        <v>357987</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8386326543483295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7935499117713837</v>
+        <v>0.7987719679245153</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.872528242975727</v>
+        <v>0.8742386778502981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>330</v>
@@ -1487,19 +1487,19 @@
         <v>335410</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>317409</v>
+        <v>318863</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>350911</v>
+        <v>350006</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8057831233883477</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7625370733601738</v>
+        <v>0.7660305431059089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8430211797795301</v>
+        <v>0.8408480880995377</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>654</v>
@@ -1508,19 +1508,19 @@
         <v>678817</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>657738</v>
+        <v>654483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>700814</v>
+        <v>701255</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8220732334726637</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7965455328918163</v>
+        <v>0.792604303708101</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8487126476120327</v>
+        <v>0.8492463245926877</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>46854</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34916</v>
+        <v>35546</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63114</v>
+        <v>62795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1465414005079226</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1092041155652987</v>
+        <v>0.1111738710391417</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1973967306455427</v>
+        <v>0.1963979284032847</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -1633,19 +1633,19 @@
         <v>71822</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57805</v>
+        <v>57387</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89200</v>
+        <v>87029</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2072601851068723</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1668098537203494</v>
+        <v>0.1656045301912327</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2574104584820688</v>
+        <v>0.2511432416511944</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -1654,19 +1654,19 @@
         <v>118676</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98004</v>
+        <v>99335</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139768</v>
+        <v>139292</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1781218508986511</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1470956560182892</v>
+        <v>0.1490934599245924</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2097791985507401</v>
+        <v>0.2090644055681522</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>272879</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>256619</v>
+        <v>256938</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>284817</v>
+        <v>284187</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8534585994920774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8026032693544568</v>
+        <v>0.8036020715967153</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8907958844347013</v>
+        <v>0.8888261289608578</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>270</v>
@@ -1704,19 +1704,19 @@
         <v>274708</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>257330</v>
+        <v>259501</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>288725</v>
+        <v>289143</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7927398148931277</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7425895415179316</v>
+        <v>0.7488567583488056</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8331901462796508</v>
+        <v>0.8343954698087676</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>550</v>
@@ -1725,19 +1725,19 @@
         <v>547586</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>526494</v>
+        <v>526970</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>568258</v>
+        <v>566927</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8218781491013489</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7902208014492601</v>
+        <v>0.7909355944318479</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8529043439817111</v>
+        <v>0.8509065400754077</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>41313</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30593</v>
+        <v>31151</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54552</v>
+        <v>54396</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1416540625684807</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1048963074035886</v>
+        <v>0.1068091222478387</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1870456783784598</v>
+        <v>0.1865117699229692</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -1850,19 +1850,19 @@
         <v>81112</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65893</v>
+        <v>66935</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>95929</v>
+        <v>97019</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2365222258444196</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1921445582137438</v>
+        <v>0.1951844981348778</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2797289697309281</v>
+        <v>0.282909634835374</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -1871,19 +1871,19 @@
         <v>122425</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103236</v>
+        <v>105206</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141301</v>
+        <v>143328</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1929216212321301</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.162682816460451</v>
+        <v>0.1657872934114852</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2226676763833333</v>
+        <v>0.225862108889694</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>250336</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237097</v>
+        <v>237253</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261056</v>
+        <v>260498</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8583459374315193</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8129543216215402</v>
+        <v>0.8134882300770309</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8951036925964115</v>
+        <v>0.8931908777521613</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>283</v>
@@ -1921,19 +1921,19 @@
         <v>261822</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247005</v>
+        <v>245915</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277041</v>
+        <v>275999</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7634777741555804</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7202710302690716</v>
+        <v>0.717090365164626</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8078554417862562</v>
+        <v>0.8048155018651216</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>542</v>
@@ -1942,19 +1942,19 @@
         <v>512158</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>493282</v>
+        <v>491255</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531347</v>
+        <v>529377</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8070783787678699</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7773323236166666</v>
+        <v>0.774137891110306</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.837317183539549</v>
+        <v>0.8342127065885148</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>59396</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46851</v>
+        <v>47631</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72253</v>
+        <v>73124</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2829960815947314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2232230801700896</v>
+        <v>0.2269414521403053</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3442547950899715</v>
+        <v>0.3484048149379913</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -2067,19 +2067,19 @@
         <v>108043</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>90234</v>
+        <v>91665</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>127039</v>
+        <v>126014</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3235706413883255</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2702373052520227</v>
+        <v>0.2745213141973267</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3804614684178232</v>
+        <v>0.3773912027448824</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>157</v>
@@ -2088,19 +2088,19 @@
         <v>167439</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>144453</v>
+        <v>144159</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>189226</v>
+        <v>190293</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3079103773851824</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2656399003739175</v>
+        <v>0.2650999659905224</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3479747661896537</v>
+        <v>0.3499381927653851</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>150487</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>137630</v>
+        <v>136759</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>163032</v>
+        <v>162252</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7170039184052686</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6557452049100286</v>
+        <v>0.651595185062009</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7767769198299105</v>
+        <v>0.773058547859695</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>195</v>
@@ -2138,19 +2138,19 @@
         <v>225865</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>206869</v>
+        <v>207894</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>243674</v>
+        <v>242243</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6764293586116744</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6195385315821766</v>
+        <v>0.6226087972551181</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7297626947479773</v>
+        <v>0.7254786858026734</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>353</v>
@@ -2159,19 +2159,19 @@
         <v>376352</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>354565</v>
+        <v>353498</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>399338</v>
+        <v>399632</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6920896226148177</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6520252338103463</v>
+        <v>0.6500618072346153</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7343600996260824</v>
+        <v>0.7349000340094777</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>538090</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>492223</v>
+        <v>497659</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>577102</v>
+        <v>579595</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2183377730115744</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1997265867019365</v>
+        <v>0.2019323028156871</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2341677167569262</v>
+        <v>0.2351793067866018</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>727</v>
@@ -2284,19 +2284,19 @@
         <v>752521</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>706030</v>
+        <v>705545</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>804131</v>
+        <v>798648</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2618871887969719</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2457077454174861</v>
+        <v>0.2455391409605985</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2798482340344395</v>
+        <v>0.2779402567556291</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1251</v>
@@ -2305,19 +2305,19 @@
         <v>1290610</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1231438</v>
+        <v>1224048</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1352544</v>
+        <v>1356577</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2417807702481004</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2306955416027019</v>
+        <v>0.2293111814613061</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2533832606091192</v>
+        <v>0.2541389126447806</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1926393</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1887381</v>
+        <v>1884888</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1972260</v>
+        <v>1966824</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7816622269884257</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7658322832430736</v>
+        <v>0.7648206932133982</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8002734132980636</v>
+        <v>0.7980676971843129</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2072</v>
@@ -2355,19 +2355,19 @@
         <v>2120932</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2069322</v>
+        <v>2074805</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2167423</v>
+        <v>2167908</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7381128112030282</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7201517659655604</v>
+        <v>0.7220597432443707</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7542922545825138</v>
+        <v>0.7544608590394014</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3984</v>
@@ -2376,19 +2376,19 @@
         <v>4047326</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3985392</v>
+        <v>3981359</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4106498</v>
+        <v>4113888</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7582192297518996</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7466167393908808</v>
+        <v>0.7458610873552195</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7693044583972981</v>
+        <v>0.7706888185386939</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>131023</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>114004</v>
+        <v>113964</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147374</v>
+        <v>146047</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.501789492589605</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4366089117689644</v>
+        <v>0.4364546204054673</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5644102652932977</v>
+        <v>0.5593260243592958</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>155</v>
@@ -2744,19 +2744,19 @@
         <v>157324</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>139699</v>
+        <v>140777</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>176196</v>
+        <v>174639</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5190432333613555</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4608955204250573</v>
+        <v>0.4644524411622218</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.58130855127627</v>
+        <v>0.5761715745995042</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>284</v>
@@ -2765,19 +2765,19 @@
         <v>288347</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>264488</v>
+        <v>265479</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>312408</v>
+        <v>310984</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5110584035519701</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4687713577315086</v>
+        <v>0.4705273475526172</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5537043457210075</v>
+        <v>0.5511808399408553</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>130089</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113738</v>
+        <v>115065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147108</v>
+        <v>147148</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4982105074103949</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4355897347067023</v>
+        <v>0.4406739756407042</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5633910882310357</v>
+        <v>0.5635453795945327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -2815,19 +2815,19 @@
         <v>145779</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>126907</v>
+        <v>128464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>163404</v>
+        <v>162326</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4809567666386445</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4186914487237298</v>
+        <v>0.4238284254004958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5391044795749426</v>
+        <v>0.5355475588377783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>273</v>
@@ -2836,19 +2836,19 @@
         <v>275868</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>251807</v>
+        <v>253231</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>299727</v>
+        <v>298736</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4889415964480299</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4462956542789926</v>
+        <v>0.4488191600591447</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5312286422684913</v>
+        <v>0.5294726524473828</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>256302</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>235349</v>
+        <v>234669</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>276072</v>
+        <v>277798</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5568542871054867</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5113311651627064</v>
+        <v>0.5098533033228297</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.599806384116344</v>
+        <v>0.6035565161955302</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>357</v>
@@ -2961,19 +2961,19 @@
         <v>380964</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>360048</v>
+        <v>361078</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>399849</v>
+        <v>398588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7610284243850871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7192464259141523</v>
+        <v>0.7213032952347924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7987538695420968</v>
+        <v>0.7962352037180399</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>605</v>
@@ -2982,19 +2982,19 @@
         <v>637266</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>607778</v>
+        <v>603937</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>665232</v>
+        <v>664715</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6632255331854665</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6325372677656009</v>
+        <v>0.6285390947162025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6923315312354502</v>
+        <v>0.6917932332660254</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>203966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>184196</v>
+        <v>182470</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>224919</v>
+        <v>225599</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4431457128945133</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.400193615883656</v>
+        <v>0.39644348380447</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4886688348372936</v>
+        <v>0.4901466966771706</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>113</v>
@@ -3032,19 +3032,19 @@
         <v>119627</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>100742</v>
+        <v>102003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>140543</v>
+        <v>139513</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2389715756149129</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2012461304579032</v>
+        <v>0.2037647962819598</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2807535740858477</v>
+        <v>0.2786967047652076</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>314</v>
@@ -3053,19 +3053,19 @@
         <v>323592</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>295626</v>
+        <v>296143</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>353080</v>
+        <v>356921</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3367744668145334</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3076684687645498</v>
+        <v>0.3082067667339746</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3674627322343991</v>
+        <v>0.3714609052837974</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>448757</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>425728</v>
+        <v>426446</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>471989</v>
+        <v>469786</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7287401199050593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6913425326075295</v>
+        <v>0.6925081161906653</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7664666185897187</v>
+        <v>0.7628880381705578</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>479</v>
@@ -3178,19 +3178,19 @@
         <v>510424</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>484915</v>
+        <v>489108</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>532167</v>
+        <v>531862</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7680672255504583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7296823271018456</v>
+        <v>0.735992434963581</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8007853906987754</v>
+        <v>0.8003265335858675</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>910</v>
@@ -3199,19 +3199,19 @@
         <v>959181</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>926800</v>
+        <v>923125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>991175</v>
+        <v>987482</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7491524725325404</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7238616533025968</v>
+        <v>0.7209911245618369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.774140483068583</v>
+        <v>0.7712561525027655</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>167042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>143810</v>
+        <v>146013</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>190071</v>
+        <v>189353</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2712598800949407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2335333814102813</v>
+        <v>0.2371119618294421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3086574673924703</v>
+        <v>0.3074918838093346</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>144</v>
@@ -3249,19 +3249,19 @@
         <v>154132</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132389</v>
+        <v>132694</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179641</v>
+        <v>175448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2319327744495418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1992146093012246</v>
+        <v>0.1996734664141327</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2703176728981544</v>
+        <v>0.2640075650364194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>302</v>
@@ -3270,19 +3270,19 @@
         <v>321174</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>289180</v>
+        <v>292873</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>353555</v>
+        <v>357230</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2508475274674596</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2258595169314171</v>
+        <v>0.2287438474972346</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2761383466974032</v>
+        <v>0.2790088754381632</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>272517</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>248385</v>
+        <v>249492</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>294786</v>
+        <v>294709</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5509541300696907</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5021654011004414</v>
+        <v>0.5044034625955475</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.595976859489411</v>
+        <v>0.5958198615594726</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>209</v>
@@ -3395,19 +3395,19 @@
         <v>236909</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>212006</v>
+        <v>214174</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>263592</v>
+        <v>260503</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4467988768664512</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3998331220384243</v>
+        <v>0.4039216100263315</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4971229123864885</v>
+        <v>0.4912965583830043</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>452</v>
@@ -3416,19 +3416,19 @@
         <v>509425</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>472962</v>
+        <v>474891</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>542006</v>
+        <v>543171</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4970670659302546</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4614882960429346</v>
+        <v>0.4633708951540089</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5288572463067147</v>
+        <v>0.5299941064463062</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>222110</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>199841</v>
+        <v>199918</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>246242</v>
+        <v>245135</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4490458699303093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4040231405105888</v>
+        <v>0.4041801384405274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4978345988995586</v>
+        <v>0.4955965374044526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>254</v>
@@ -3466,19 +3466,19 @@
         <v>293327</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>266644</v>
+        <v>269733</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>318230</v>
+        <v>316062</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5532011231335487</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5028770876135116</v>
+        <v>0.5087034416169958</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6001668779615759</v>
+        <v>0.5960783899736685</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>454</v>
@@ -3487,19 +3487,19 @@
         <v>515437</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>482856</v>
+        <v>481691</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>551900</v>
+        <v>549971</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5029329340697454</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4711427536932854</v>
+        <v>0.4700058935536938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5385117039570654</v>
+        <v>0.536629104845991</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>108708</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92179</v>
+        <v>91724</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126404</v>
+        <v>128221</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3015376307592516</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2556884297696084</v>
+        <v>0.2544276426215378</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3506237699185913</v>
+        <v>0.3556637473342924</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>119</v>
@@ -3612,19 +3612,19 @@
         <v>131117</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>113386</v>
+        <v>112428</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>149363</v>
+        <v>149976</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3211066678831809</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2776829723915178</v>
+        <v>0.2753369394718056</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3657890553259276</v>
+        <v>0.3672920173554953</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>220</v>
@@ -3633,19 +3633,19 @@
         <v>239825</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>215009</v>
+        <v>213850</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>269352</v>
+        <v>267882</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3119306876770233</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2796535975430176</v>
+        <v>0.2781456813850255</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3503343224809526</v>
+        <v>0.348422728287374</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>251804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>234108</v>
+        <v>232291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>268333</v>
+        <v>268788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6984623692407484</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6493762300814088</v>
+        <v>0.6443362526657076</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7443115702303917</v>
+        <v>0.7455723573784622</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>252</v>
@@ -3683,19 +3683,19 @@
         <v>277213</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>258967</v>
+        <v>258354</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>294944</v>
+        <v>295902</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6788933321168191</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6342109446740724</v>
+        <v>0.6327079826445047</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7223170276084822</v>
+        <v>0.7246630605281944</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>479</v>
@@ -3704,19 +3704,19 @@
         <v>529017</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>499490</v>
+        <v>500960</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>553833</v>
+        <v>554992</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6880693123229767</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6496656775190472</v>
+        <v>0.651577271712626</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7203464024569824</v>
+        <v>0.7218543186149745</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>90932</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74561</v>
+        <v>73817</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109582</v>
+        <v>108474</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2961781879918732</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2428565988698501</v>
+        <v>0.2404331643529228</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3569232787653654</v>
+        <v>0.3533142181474584</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>90</v>
@@ -3829,19 +3829,19 @@
         <v>91975</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74887</v>
+        <v>76367</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109338</v>
+        <v>109334</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2612292402161395</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2126960051516483</v>
+        <v>0.2169003333588478</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3105444338447625</v>
+        <v>0.3105334279609845</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -3850,19 +3850,19 @@
         <v>182907</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>161096</v>
+        <v>160775</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>205483</v>
+        <v>208976</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2775088993616554</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.244417658488864</v>
+        <v>0.243930072019684</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3117625670881948</v>
+        <v>0.3170621352294871</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>216086</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>197436</v>
+        <v>198544</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232457</v>
+        <v>233201</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7038218120081268</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6430767212346348</v>
+        <v>0.6466857818525416</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7571434011301501</v>
+        <v>0.7595668356470775</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>252</v>
@@ -3900,19 +3900,19 @@
         <v>260109</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242746</v>
+        <v>242750</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277197</v>
+        <v>275717</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7387707597838605</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.689455566155238</v>
+        <v>0.6894665720390154</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7873039948483518</v>
+        <v>0.7830996666411523</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>449</v>
@@ -3921,19 +3921,19 @@
         <v>476195</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>453619</v>
+        <v>450126</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>498006</v>
+        <v>498327</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7224911006383445</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6882374329118052</v>
+        <v>0.682937864770513</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.755582341511136</v>
+        <v>0.7560699279803162</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>115409</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98761</v>
+        <v>98474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>132432</v>
+        <v>133800</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.463702436672534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.39681420109778</v>
+        <v>0.3956598659455174</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5321017459303787</v>
+        <v>0.5375980685508445</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>174</v>
@@ -4046,19 +4046,19 @@
         <v>193737</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>174047</v>
+        <v>172904</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>215099</v>
+        <v>212964</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5036284722123966</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4524451211972602</v>
+        <v>0.4494713238501353</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5591613606130125</v>
+        <v>0.5536115672297953</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>275</v>
@@ -4067,19 +4067,19 @@
         <v>309146</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>283373</v>
+        <v>280349</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>335734</v>
+        <v>334104</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4879442542786777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4472659962277702</v>
+        <v>0.4424922323665786</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5299103127825228</v>
+        <v>0.5273369023376923</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>133476</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>116453</v>
+        <v>115085</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>150124</v>
+        <v>150411</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.536297563327466</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4678982540696213</v>
+        <v>0.4624019314491555</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6031857989022201</v>
+        <v>0.6043401340544826</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>172</v>
@@ -4117,19 +4117,19 @@
         <v>190945</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>169583</v>
+        <v>171718</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>210635</v>
+        <v>211778</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4963715277876034</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4408386393869875</v>
+        <v>0.4463884327702047</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5475548788027397</v>
+        <v>0.5505286761498649</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>292</v>
@@ -4138,19 +4138,19 @@
         <v>324422</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>297834</v>
+        <v>299464</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>350195</v>
+        <v>353219</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5120557457213223</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4700896872174771</v>
+        <v>0.4726630976623076</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5527340037722298</v>
+        <v>0.5575077676334215</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1423649</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1371322</v>
+        <v>1369655</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1482097</v>
+        <v>1481313</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5180253263074112</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4989851814448812</v>
+        <v>0.4983786039270684</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5392929243097035</v>
+        <v>0.5390079386155443</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1583</v>
@@ -4263,19 +4263,19 @@
         <v>1702448</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1644436</v>
+        <v>1647469</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1758753</v>
+        <v>1764349</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5415633995510047</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5231092060415907</v>
+        <v>0.5240740591191799</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5594742252723014</v>
+        <v>0.5612543826635999</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2918</v>
@@ -4284,19 +4284,19 @@
         <v>3126097</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3049591</v>
+        <v>3041491</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3204099</v>
+        <v>3202172</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5305841043809743</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5175990084206729</v>
+        <v>0.516224134487397</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5438231341614346</v>
+        <v>0.543496024112343</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1324573</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1266125</v>
+        <v>1266909</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1376900</v>
+        <v>1378567</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4819746736925888</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4607070756902963</v>
+        <v>0.4609920613844556</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5010148185551188</v>
+        <v>0.5016213960729314</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1330</v>
@@ -4334,19 +4334,19 @@
         <v>1441133</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1384828</v>
+        <v>1379232</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1499145</v>
+        <v>1496112</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4584366004489952</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4405257747276986</v>
+        <v>0.4387456173364001</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4768907939584093</v>
+        <v>0.47592594088082</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2563</v>
@@ -4355,19 +4355,19 @@
         <v>2765706</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2687704</v>
+        <v>2689631</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2842212</v>
+        <v>2850312</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4694158956190257</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4561768658385654</v>
+        <v>0.456503975887657</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4824009915793272</v>
+        <v>0.483775865512603</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>82790</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67396</v>
+        <v>67142</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97151</v>
+        <v>98502</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3673049110343709</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2990093035859645</v>
+        <v>0.29788141674132</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.431019701074029</v>
+        <v>0.4370118305805252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -4723,19 +4723,19 @@
         <v>113241</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98857</v>
+        <v>98219</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130574</v>
+        <v>126808</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4654675449720071</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4063419970210627</v>
+        <v>0.403720041575939</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5367101442488391</v>
+        <v>0.5212310683007805</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>188</v>
@@ -4744,19 +4744,19 @@
         <v>196031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175371</v>
+        <v>176276</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>217632</v>
+        <v>217544</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4182593956992217</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3741790450666996</v>
+        <v>0.3761087286965993</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4643476675140224</v>
+        <v>0.4641609953977301</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>142608</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>128247</v>
+        <v>126896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>158002</v>
+        <v>158256</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6326950889656291</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5689802989259709</v>
+        <v>0.5629881694194749</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7009906964140354</v>
+        <v>0.7021185832586799</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -4794,19 +4794,19 @@
         <v>130044</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112711</v>
+        <v>116477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>144428</v>
+        <v>145066</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5345324550279928</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4632898557511619</v>
+        <v>0.4787689316992198</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5936580029789373</v>
+        <v>0.5962799584240616</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>270</v>
@@ -4815,19 +4815,19 @@
         <v>272652</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>251051</v>
+        <v>251139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>293312</v>
+        <v>292407</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5817406043007783</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5356523324859775</v>
+        <v>0.53583900460227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6258209549333008</v>
+        <v>0.6238912713034006</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>189753</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>171854</v>
+        <v>171528</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>210458</v>
+        <v>208084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5613802187139924</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5084245652653819</v>
+        <v>0.5074598834218467</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6226355160588151</v>
+        <v>0.6156121187185269</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>291</v>
@@ -4940,19 +4940,19 @@
         <v>285110</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>267247</v>
+        <v>265051</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>305260</v>
+        <v>303654</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6526980317062889</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.611805079104122</v>
+        <v>0.6067778512968597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6988256197478419</v>
+        <v>0.6951500956021216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>473</v>
@@ -4961,19 +4961,19 @@
         <v>474863</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>446155</v>
+        <v>449170</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>501957</v>
+        <v>501471</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6128615581045377</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5758114163908391</v>
+        <v>0.5797025147473669</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6478293007637209</v>
+        <v>0.6472024849820893</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>148259</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>127554</v>
+        <v>129928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>166158</v>
+        <v>166484</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4386197812860077</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.377364483941185</v>
+        <v>0.3843878812814731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4915754347346181</v>
+        <v>0.4925401165781534</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>158</v>
@@ -5011,19 +5011,19 @@
         <v>151708</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>131558</v>
+        <v>133164</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>169571</v>
+        <v>171767</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3473019682937111</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3011743802521581</v>
+        <v>0.3048499043978785</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.388194920895878</v>
+        <v>0.3932221487031403</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>300</v>
@@ -5032,19 +5032,19 @@
         <v>299966</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>272872</v>
+        <v>273358</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>328674</v>
+        <v>325659</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3871384418954624</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3521706992362791</v>
+        <v>0.3527975150179107</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.424188583609161</v>
+        <v>0.4202974852526332</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>320621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>295906</v>
+        <v>295641</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>343667</v>
+        <v>341472</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6117118299254701</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5645577343513523</v>
+        <v>0.5640516628246984</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6556801255864423</v>
+        <v>0.6514920325505978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>383</v>
@@ -5157,19 +5157,19 @@
         <v>382375</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>359537</v>
+        <v>359310</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>404516</v>
+        <v>404469</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6500744399515794</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6112482064745592</v>
+        <v>0.6108609603171526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6877164073829067</v>
+        <v>0.6876360879261647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>689</v>
@@ -5178,19 +5178,19 @@
         <v>702996</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>668822</v>
+        <v>669372</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>734947</v>
+        <v>732581</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6319978600391396</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6012750920655142</v>
+        <v>0.6017694568620642</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6607211478529003</v>
+        <v>0.6585946097268561</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>203517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180471</v>
+        <v>182666</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>228232</v>
+        <v>228497</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3882881700745299</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3443198744135577</v>
+        <v>0.348507967449402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4354422656486475</v>
+        <v>0.4359483371753013</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>208</v>
@@ -5228,19 +5228,19 @@
         <v>205827</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>183686</v>
+        <v>183733</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>228665</v>
+        <v>228892</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3499255600484206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3122835926170933</v>
+        <v>0.3123639120738355</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3887517935254407</v>
+        <v>0.3891390396828474</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>405</v>
@@ -5249,19 +5249,19 @@
         <v>409344</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>377393</v>
+        <v>379759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>443518</v>
+        <v>442968</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3680021399608605</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3392788521470997</v>
+        <v>0.3414053902731438</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3987249079344858</v>
+        <v>0.3982305431379358</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>199249</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>177765</v>
+        <v>178379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>222882</v>
+        <v>222427</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4097632637195394</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3655804430842448</v>
+        <v>0.366843135974542</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4583646496043818</v>
+        <v>0.4574295769320258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>186</v>
@@ -5374,19 +5374,19 @@
         <v>201266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>180306</v>
+        <v>181459</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223946</v>
+        <v>225062</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4045007240297412</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3623765005115424</v>
+        <v>0.3646930638563371</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4500827284169552</v>
+        <v>0.4523251128696829</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>366</v>
@@ -5395,19 +5395,19 @@
         <v>400515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>369652</v>
+        <v>366875</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>431839</v>
+        <v>429418</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4071017379615697</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3757311039076167</v>
+        <v>0.3729085477351302</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4389412687509381</v>
+        <v>0.4364800119489073</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>287005</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>263372</v>
+        <v>263827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>308489</v>
+        <v>307875</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5902367362804607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5416353503956183</v>
+        <v>0.5425704230679742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6344195569157551</v>
+        <v>0.633156864025458</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>275</v>
@@ -5445,19 +5445,19 @@
         <v>296300</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>273620</v>
+        <v>272504</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>317260</v>
+        <v>316107</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5954992759702588</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5499172715830448</v>
+        <v>0.5476748871303175</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6376234994884575</v>
+        <v>0.635306936143663</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>536</v>
@@ -5466,19 +5466,19 @@
         <v>583305</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>551981</v>
+        <v>554402</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>614168</v>
+        <v>616945</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5928982620384303</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5610587312490618</v>
+        <v>0.5635199880510924</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6242688960923832</v>
+        <v>0.6270914522648697</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>81199</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65231</v>
+        <v>66243</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100022</v>
+        <v>99206</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2375439170349979</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1908307145272104</v>
+        <v>0.193789271878213</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2926088222031488</v>
+        <v>0.2902231595949822</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>97</v>
@@ -5591,19 +5591,19 @@
         <v>112635</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>93398</v>
+        <v>94132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132896</v>
+        <v>131348</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2662977386290415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2208162554124522</v>
+        <v>0.2225508857657956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3141999739784382</v>
+        <v>0.3105404046992076</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>170</v>
@@ -5612,19 +5612,19 @@
         <v>193834</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169421</v>
+        <v>169310</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>222817</v>
+        <v>220116</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2534461045292954</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2215243062188104</v>
+        <v>0.2213790151215443</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2913427611786489</v>
+        <v>0.2878101991242911</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>260629</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>241806</v>
+        <v>242622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>276597</v>
+        <v>275585</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7624560829650021</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7073911777968511</v>
+        <v>0.7097768404050177</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8091692854727895</v>
+        <v>0.806210728121787</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>273</v>
@@ -5662,19 +5662,19 @@
         <v>310332</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>290071</v>
+        <v>291619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>329569</v>
+        <v>328835</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7337022613709585</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6858000260215618</v>
+        <v>0.6894595953007924</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7791837445875476</v>
+        <v>0.7774491142342044</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>503</v>
@@ -5683,19 +5683,19 @@
         <v>570961</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>541978</v>
+        <v>544679</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>595374</v>
+        <v>595485</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7465538954707046</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7086572388213502</v>
+        <v>0.7121898008757088</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7784756937811894</v>
+        <v>0.7786209848784555</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>72977</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59673</v>
+        <v>58134</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89396</v>
+        <v>88730</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2224616570504925</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1819079933016569</v>
+        <v>0.1772138372159507</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2725129894607736</v>
+        <v>0.2704829115694903</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -5808,19 +5808,19 @@
         <v>100420</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>85671</v>
+        <v>84456</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120669</v>
+        <v>118111</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2730654317091178</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2329589781507934</v>
+        <v>0.2296573758063093</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3281281644346852</v>
+        <v>0.3211713749321634</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>166</v>
@@ -5829,19 +5829,19 @@
         <v>173397</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>152678</v>
+        <v>152427</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>197753</v>
+        <v>199307</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2492074749584278</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2194312247581064</v>
+        <v>0.2190693392122965</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2842129115639537</v>
+        <v>0.2864461106361581</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>255065</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238646</v>
+        <v>239312</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268369</v>
+        <v>269908</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7775383429495075</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7274870105392264</v>
+        <v>0.7295170884305098</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.818092006698343</v>
+        <v>0.8227861627840493</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>250</v>
@@ -5879,19 +5879,19 @@
         <v>267330</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247081</v>
+        <v>249639</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>282079</v>
+        <v>283294</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7269345682908822</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6718718355653148</v>
+        <v>0.6788286250678367</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7670410218492066</v>
+        <v>0.7703426241936907</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>497</v>
@@ -5900,19 +5900,19 @@
         <v>522395</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>498039</v>
+        <v>496485</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>543114</v>
+        <v>543365</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7507925250415722</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7157870884360463</v>
+        <v>0.7135538893638418</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7805687752418936</v>
+        <v>0.7809306607877036</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>93530</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>80156</v>
+        <v>79515</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107881</v>
+        <v>107194</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3663212680691698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3139422672152185</v>
+        <v>0.3114330523766784</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4225290102996321</v>
+        <v>0.4198410514104062</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>142</v>
@@ -6025,19 +6025,19 @@
         <v>191771</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>167686</v>
+        <v>168644</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>212577</v>
+        <v>213854</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.483615695979989</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4228776789292482</v>
+        <v>0.4252937745504346</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5360855613226587</v>
+        <v>0.5393067061065541</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>250</v>
@@ -6046,19 +6046,19 @@
         <v>285301</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>256922</v>
+        <v>257633</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>312211</v>
+        <v>311832</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4376734495860157</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3941392809940839</v>
+        <v>0.3952290421245838</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4789556861021718</v>
+        <v>0.4783745645488168</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>161791</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>147440</v>
+        <v>148127</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>175165</v>
+        <v>175806</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6336787319308302</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5774709897003678</v>
+        <v>0.5801589485895938</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6860577327847814</v>
+        <v>0.6885669476233216</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>157</v>
@@ -6096,19 +6096,19 @@
         <v>204764</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>183958</v>
+        <v>182681</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>228849</v>
+        <v>227891</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.516384304020011</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4639144386773414</v>
+        <v>0.4606932938934458</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5771223210707518</v>
+        <v>0.5747062254495653</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>349</v>
@@ -6117,19 +6117,19 @@
         <v>366556</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>339646</v>
+        <v>340025</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>394935</v>
+        <v>394224</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5623265504139843</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5210443138978282</v>
+        <v>0.5216254354511832</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6058607190059162</v>
+        <v>0.6047709578754157</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1040119</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>990902</v>
+        <v>990531</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1087483</v>
+        <v>1090653</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4162151537538221</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3965206009731178</v>
+        <v>0.396372153522688</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4351685190967765</v>
+        <v>0.4364371326200961</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1306</v>
@@ -6242,19 +6242,19 @@
         <v>1386818</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1332576</v>
+        <v>1333036</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1449568</v>
+        <v>1441576</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4696106301764345</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4512429756476242</v>
+        <v>0.4513987966123028</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.490859454173261</v>
+        <v>0.4881531329654066</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2302</v>
@@ -6263,19 +6263,19 @@
         <v>2426937</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2349754</v>
+        <v>2346657</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2504066</v>
+        <v>2502946</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4451366621481327</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4309801130634306</v>
+        <v>0.4304120787649726</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4592833350363972</v>
+        <v>0.4590778367979052</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1458874</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1411510</v>
+        <v>1408340</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1508091</v>
+        <v>1508462</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5837848462461779</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5648314809032235</v>
+        <v>0.5635628673799035</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6034793990268823</v>
+        <v>0.6036278464773119</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1455</v>
@@ -6313,19 +6313,19 @@
         <v>1566305</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1503555</v>
+        <v>1511547</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1620547</v>
+        <v>1620087</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5303893698235655</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5091405458267391</v>
+        <v>0.5118468670345927</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5487570243523757</v>
+        <v>0.5486012033876971</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2860</v>
@@ -6334,19 +6334,19 @@
         <v>3025179</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2948050</v>
+        <v>2949170</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3102362</v>
+        <v>3105459</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5548633378518673</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5407166649636027</v>
+        <v>0.5409221632020947</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5690198869365694</v>
+        <v>0.5695879212350274</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>31803</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18862</v>
+        <v>18816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51465</v>
+        <v>49449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1856597019671047</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1101115337518529</v>
+        <v>0.1098477528543686</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3004436690259668</v>
+        <v>0.2886739027372402</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -6702,19 +6702,19 @@
         <v>45374</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32070</v>
+        <v>30795</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63223</v>
+        <v>62846</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2568554714499121</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1815395227015284</v>
+        <v>0.1743256543481226</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3578950943976606</v>
+        <v>0.3557599964537795</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -6723,19 +6723,19 @@
         <v>77177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57327</v>
+        <v>56509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100452</v>
+        <v>100339</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2218057302431701</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1647567496692721</v>
+        <v>0.1624072450619018</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2886975974678002</v>
+        <v>0.2883720099016897</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>139493</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119831</v>
+        <v>121847</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152434</v>
+        <v>152480</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8143402980328953</v>
+        <v>0.8143402980328954</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6995563309740332</v>
+        <v>0.7113260972627606</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8898884662481471</v>
+        <v>0.8901522471456321</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -6773,19 +6773,19 @@
         <v>131279</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113430</v>
+        <v>113807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>144583</v>
+        <v>145858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7431445285500878</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6421049056023393</v>
+        <v>0.6442400035462208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8184604772984716</v>
+        <v>0.8256743456518776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>128</v>
@@ -6794,19 +6794,19 @@
         <v>270772</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>247497</v>
+        <v>247610</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>290622</v>
+        <v>291440</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.77819426975683</v>
+        <v>0.7781942697568299</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7113024025321997</v>
+        <v>0.71162799009831</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8352432503307277</v>
+        <v>0.8375927549380981</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>69504</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52976</v>
+        <v>52220</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88923</v>
+        <v>88943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3143954353844965</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2396341544065053</v>
+        <v>0.2362118628397115</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4022358023816039</v>
+        <v>0.4023297586173551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -6919,19 +6919,19 @@
         <v>113896</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>96672</v>
+        <v>95902</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132156</v>
+        <v>134085</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3369629140360823</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2860071578439398</v>
+        <v>0.2837279213164878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3909851139114224</v>
+        <v>0.3966935080015948</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -6940,19 +6940,19 @@
         <v>183400</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>161009</v>
+        <v>157750</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>212819</v>
+        <v>209511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3280392669628591</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2879894029589706</v>
+        <v>0.2821601476158088</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3806603354358614</v>
+        <v>0.3747430477609751</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>151567</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>132148</v>
+        <v>132128</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>168095</v>
+        <v>168851</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6856045646155033</v>
+        <v>0.6856045646155035</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5977641976183962</v>
+        <v>0.5976702413826451</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7603658455934947</v>
+        <v>0.7637881371602887</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>205</v>
@@ -6990,19 +6990,19 @@
         <v>224111</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>205851</v>
+        <v>203922</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>241335</v>
+        <v>242105</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6630370859639177</v>
+        <v>0.6630370859639175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6090148860885777</v>
+        <v>0.6033064919984055</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7139928421560605</v>
+        <v>0.7162720786835125</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>304</v>
@@ -7011,19 +7011,19 @@
         <v>375678</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>346259</v>
+        <v>349567</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>398069</v>
+        <v>401328</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6719607330371409</v>
+        <v>0.6719607330371411</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6193396645641379</v>
+        <v>0.6252569522390249</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7120105970410293</v>
+        <v>0.7178398523841911</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>143860</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123959</v>
+        <v>124652</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168249</v>
+        <v>165738</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3292200081152334</v>
+        <v>0.3292200081152335</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2836776993541991</v>
+        <v>0.2852648154331429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3850340117801287</v>
+        <v>0.3792885784694963</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>206</v>
@@ -7136,19 +7136,19 @@
         <v>159873</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140564</v>
+        <v>142147</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178273</v>
+        <v>178742</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2966293767501603</v>
+        <v>0.2966293767501604</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.260803998264381</v>
+        <v>0.2637404353203837</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3307699070162573</v>
+        <v>0.3316395269080452</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>330</v>
@@ -7157,19 +7157,19 @@
         <v>303732</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>277091</v>
+        <v>276012</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>333445</v>
+        <v>332897</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3112216917215238</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2839234951612695</v>
+        <v>0.2828176567073616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.341667158671614</v>
+        <v>0.3411051405725079</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>293111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>268722</v>
+        <v>271233</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313012</v>
+        <v>312319</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6707799918847664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6149659882198714</v>
+        <v>0.6207114215305036</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7163223006458009</v>
+        <v>0.7147351845668569</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>528</v>
@@ -7207,19 +7207,19 @@
         <v>379092</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>360692</v>
+        <v>360223</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>398401</v>
+        <v>396818</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7033706232498397</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6692300929837428</v>
+        <v>0.6683604730919549</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7391960017356192</v>
+        <v>0.7362595646796163</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>787</v>
@@ -7228,19 +7228,19 @@
         <v>672204</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>642491</v>
+        <v>643039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>698845</v>
+        <v>699924</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6887783082784761</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6583328413283861</v>
+        <v>0.6588948594274922</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7160765048387305</v>
+        <v>0.7171823432926385</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>120486</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>101989</v>
+        <v>100464</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139272</v>
+        <v>139394</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2502474379494306</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2118291543563955</v>
+        <v>0.2086609809358844</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2892645208077268</v>
+        <v>0.2895185614429364</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>186</v>
@@ -7353,19 +7353,19 @@
         <v>127434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111471</v>
+        <v>113139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143582</v>
+        <v>145058</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2416502445056116</v>
+        <v>0.2416502445056115</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2113808896568655</v>
+        <v>0.2145436458523075</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2722711175881155</v>
+        <v>0.2750711687099482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>295</v>
@@ -7374,19 +7374,19 @@
         <v>247920</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>222465</v>
+        <v>222620</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>273563</v>
+        <v>275163</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2457533453719671</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2205201798302329</v>
+        <v>0.2206739315030766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2711717793151584</v>
+        <v>0.2727580688503486</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>360983</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342197</v>
+        <v>342075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>379480</v>
+        <v>381005</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7497525620505695</v>
+        <v>0.7497525620505694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7107354791922731</v>
+        <v>0.7104814385570635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7881708456436045</v>
+        <v>0.7913390190641157</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>625</v>
@@ -7424,19 +7424,19 @@
         <v>399914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>383766</v>
+        <v>382290</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>415877</v>
+        <v>414209</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7583497554943884</v>
+        <v>0.7583497554943883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7277288824118843</v>
+        <v>0.7249288312900514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7886191103431345</v>
+        <v>0.7854563541476925</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>976</v>
@@ -7445,19 +7445,19 @@
         <v>760897</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>735254</v>
+        <v>733654</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>786352</v>
+        <v>786197</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7542466546280329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7288282206848415</v>
+        <v>0.7272419311496514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7794798201697671</v>
+        <v>0.7793260684969235</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>68899</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55171</v>
+        <v>56018</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82841</v>
+        <v>84228</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1949570719680176</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1561125721652336</v>
+        <v>0.1585091582411346</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2344072166364627</v>
+        <v>0.2383318370888848</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -7570,19 +7570,19 @@
         <v>78031</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66330</v>
+        <v>67707</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91801</v>
+        <v>92015</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1955867471693645</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1662601104360081</v>
+        <v>0.1697096042567771</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2301036705896288</v>
+        <v>0.2306392926262913</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>198</v>
@@ -7591,19 +7591,19 @@
         <v>146930</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>129241</v>
+        <v>128569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>167652</v>
+        <v>167748</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1952909700579334</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1717794947938401</v>
+        <v>0.1708861550325684</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2228332719601226</v>
+        <v>0.2229609822601699</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>284509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>270567</v>
+        <v>269180</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>298237</v>
+        <v>297390</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8050429280319823</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7655927833635372</v>
+        <v>0.7616681629111147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8438874278347662</v>
+        <v>0.8414908417588646</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>530</v>
@@ -7641,19 +7641,19 @@
         <v>320925</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>307155</v>
+        <v>306941</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>332626</v>
+        <v>331249</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8044132528306356</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7698963294103713</v>
+        <v>0.7693607073737087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.833739889563992</v>
+        <v>0.8302903957432229</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>838</v>
@@ -7662,19 +7662,19 @@
         <v>605434</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>584712</v>
+        <v>584616</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>623123</v>
+        <v>623795</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8047090299420667</v>
+        <v>0.8047090299420666</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7771667280398773</v>
+        <v>0.7770390177398302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8282205052061598</v>
+        <v>0.8291138449674319</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>46262</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35685</v>
+        <v>36816</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>57659</v>
+        <v>57907</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1148774194167781</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08861091307587259</v>
+        <v>0.09142090820208552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1431776432386705</v>
+        <v>0.14379420956184</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>135</v>
@@ -7787,19 +7787,19 @@
         <v>73173</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61832</v>
+        <v>62218</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84712</v>
+        <v>84399</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1669272194156206</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1410554294055437</v>
+        <v>0.1419356755522048</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1932486235451512</v>
+        <v>0.1925360794812065</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>202</v>
@@ -7808,19 +7808,19 @@
         <v>119436</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105510</v>
+        <v>103634</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>139145</v>
+        <v>135406</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1420052522039925</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1254483094666468</v>
+        <v>0.1232176865028713</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1654391759526577</v>
+        <v>0.1609933613819898</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>356448</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>345051</v>
+        <v>344803</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>367025</v>
+        <v>365894</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8851225805832219</v>
+        <v>0.8851225805832217</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8568223567613296</v>
+        <v>0.85620579043816</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9113890869241272</v>
+        <v>0.9085790917979144</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>690</v>
@@ -7858,19 +7858,19 @@
         <v>365182</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>353643</v>
+        <v>353956</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>376523</v>
+        <v>376137</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8330727805843793</v>
+        <v>0.8330727805843795</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8067513764548487</v>
+        <v>0.8074639205187936</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8589445705944564</v>
+        <v>0.8580643244477952</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1188</v>
@@ -7879,19 +7879,19 @@
         <v>721629</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>701920</v>
+        <v>705659</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>735555</v>
+        <v>737431</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8579947477960074</v>
+        <v>0.8579947477960076</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8345608240473423</v>
+        <v>0.8390066386180104</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8745516905333537</v>
+        <v>0.8767823134971287</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>90436</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77246</v>
+        <v>77035</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103867</v>
+        <v>104265</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2931323345540708</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2503795677014294</v>
+        <v>0.2496972388147475</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3366675432877433</v>
+        <v>0.3379562311043623</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>384</v>
@@ -8004,19 +8004,19 @@
         <v>200750</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>184817</v>
+        <v>185235</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>216873</v>
+        <v>215679</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4335225392813409</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3991154381232795</v>
+        <v>0.400017407752308</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4683403358129122</v>
+        <v>0.4657614488969753</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>527</v>
@@ -8025,19 +8025,19 @@
         <v>291186</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>271011</v>
+        <v>272097</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>313009</v>
+        <v>313336</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.377387850901907</v>
+        <v>0.3773878509019071</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3512406537344755</v>
+        <v>0.3526477122860584</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4056716075523669</v>
+        <v>0.406096056249291</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>218079</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>204648</v>
+        <v>204250</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>231269</v>
+        <v>231480</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7068676654459293</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6633324567122565</v>
+        <v>0.6620437688956381</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7496204322985704</v>
+        <v>0.7503027611852524</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>494</v>
@@ -8075,19 +8075,19 @@
         <v>262317</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>246194</v>
+        <v>247388</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>278250</v>
+        <v>277832</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5664774607186592</v>
+        <v>0.5664774607186593</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5316596641870878</v>
+        <v>0.5342385511030248</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6008845618767205</v>
+        <v>0.5999825922476917</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>807</v>
@@ -8096,19 +8096,19 @@
         <v>480396</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>458573</v>
+        <v>458246</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>500571</v>
+        <v>499485</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6226121490980928</v>
+        <v>0.622612149098093</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5943283924476334</v>
+        <v>0.593903943750709</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6487593462655248</v>
+        <v>0.6473522877139414</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>571250</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>528457</v>
+        <v>527880</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>616210</v>
+        <v>617652</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2404817166897065</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.222466979654051</v>
+        <v>0.2222240515644234</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2594086884785102</v>
+        <v>0.26001601262024</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1166</v>
@@ -8221,19 +8221,19 @@
         <v>798531</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>756657</v>
+        <v>760142</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>841249</v>
+        <v>839498</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2771375617462544</v>
+        <v>0.2771375617462545</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2626049487889739</v>
+        <v>0.2638142499921167</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2919633462612546</v>
+        <v>0.2913554922982814</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1745</v>
@@ -8242,19 +8242,19 @@
         <v>1369781</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1307877</v>
+        <v>1308531</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1427367</v>
+        <v>1434095</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.260573513015071</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2487975944949813</v>
+        <v>0.2489219292520159</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2715281060126578</v>
+        <v>0.2728079837764327</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>1804190</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1759230</v>
+        <v>1757788</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1846983</v>
+        <v>1847560</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7595182833102936</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.74059131152149</v>
+        <v>0.7399839873797606</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7775330203459491</v>
+        <v>0.7777759484355766</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3145</v>
@@ -8292,19 +8292,19 @@
         <v>2082821</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2040103</v>
+        <v>2041854</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2124695</v>
+        <v>2121210</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7228624382537454</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7080366537387455</v>
+        <v>0.7086445077017185</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7373950512110259</v>
+        <v>0.7361857500078836</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5028</v>
@@ -8313,19 +8313,19 @@
         <v>3887011</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3829425</v>
+        <v>3822697</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3948915</v>
+        <v>3948261</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.739426486984929</v>
+        <v>0.7394264869849291</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7284718939873422</v>
+        <v>0.7271920162235671</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7512024055050186</v>
+        <v>0.7510780707479841</v>
       </c>
     </row>
     <row r="27">
